--- a/Code/Results/Cases/Case_4_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_150/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.3953411306368</v>
+        <v>18.57454011872788</v>
       </c>
       <c r="C2">
-        <v>13.40889964620277</v>
+        <v>9.853855477746013</v>
       </c>
       <c r="D2">
-        <v>7.157562290548642</v>
+        <v>5.996619807621492</v>
       </c>
       <c r="E2">
-        <v>6.694100005754852</v>
+        <v>11.26074743519876</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.077200736495358</v>
+        <v>3.65483739086045</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.346752329672437</v>
+        <v>9.917129744464303</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.65230534753275</v>
+        <v>25.81311950481265</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.71884735292052</v>
+        <v>18.00325837333569</v>
       </c>
       <c r="C3">
-        <v>12.77962099331863</v>
+        <v>9.566954487246271</v>
       </c>
       <c r="D3">
-        <v>6.654427642967474</v>
+        <v>5.880471611436008</v>
       </c>
       <c r="E3">
-        <v>6.771423171333657</v>
+        <v>11.30748871448804</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.085028453701426</v>
+        <v>3.657698605693289</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.077507281008898</v>
+        <v>9.890527293875826</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.325179945172</v>
+        <v>25.87901689110492</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.63101628930755</v>
+        <v>17.64595112973065</v>
       </c>
       <c r="C4">
-        <v>12.3778483773629</v>
+        <v>9.385235561588056</v>
       </c>
       <c r="D4">
-        <v>6.32906106249656</v>
+        <v>5.809853088783401</v>
       </c>
       <c r="E4">
-        <v>6.82369708709253</v>
+        <v>11.33816515830682</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.089962280781237</v>
+        <v>3.659547268771552</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.91138773115374</v>
+        <v>9.875970262351704</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.14790047108842</v>
+        <v>25.9277208783482</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17288637052475</v>
+        <v>17.49892536856162</v>
       </c>
       <c r="C5">
-        <v>12.21036446559982</v>
+        <v>9.30986173853268</v>
       </c>
       <c r="D5">
-        <v>6.202875018298544</v>
+        <v>5.781294205065535</v>
       </c>
       <c r="E5">
-        <v>6.846159219407699</v>
+        <v>11.35116321038829</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.092006298565753</v>
+        <v>3.660323794785724</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.843575356510061</v>
+        <v>9.87048885943155</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.08142751039359</v>
+        <v>25.94962969260857</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.09591482759422</v>
+        <v>17.47443293795263</v>
       </c>
       <c r="C6">
-        <v>12.18233066038766</v>
+        <v>9.297268491610579</v>
       </c>
       <c r="D6">
-        <v>6.183443108613365</v>
+        <v>5.776566509534832</v>
       </c>
       <c r="E6">
-        <v>6.849957821611687</v>
+        <v>11.35335155388083</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.09234776433631</v>
+        <v>3.66045413876695</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.832310712533239</v>
+        <v>9.869606003259277</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.07073315012438</v>
+        <v>25.95339180583249</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.62489800448905</v>
+        <v>17.64397373137707</v>
       </c>
       <c r="C7">
-        <v>12.37560468170697</v>
+        <v>9.384224290483145</v>
       </c>
       <c r="D7">
-        <v>6.327233513959096</v>
+        <v>5.809466990418624</v>
       </c>
       <c r="E7">
-        <v>6.823995380594456</v>
+        <v>11.33833844163613</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.089989709966756</v>
+        <v>3.659557647308134</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.9104735468461</v>
+        <v>9.875894508535241</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.14698085702498</v>
+        <v>25.92800801655958</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.82933879411812</v>
+        <v>18.37904836088398</v>
       </c>
       <c r="C8">
-        <v>13.19517918457571</v>
+        <v>9.756129934898757</v>
       </c>
       <c r="D8">
-        <v>6.987464392238979</v>
+        <v>5.956453261936004</v>
       </c>
       <c r="E8">
-        <v>6.719736468388139</v>
+        <v>11.27645347296665</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.079874102592385</v>
+        <v>3.655804919548494</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.254130880297797</v>
+        <v>9.90759084695903</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.53453019754103</v>
+        <v>25.83412366390773</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.69455276805002</v>
+        <v>19.75965896433191</v>
       </c>
       <c r="C9">
-        <v>14.67648960669603</v>
+        <v>10.43828642078554</v>
       </c>
       <c r="D9">
-        <v>8.153976210689679</v>
+        <v>6.248334215754381</v>
       </c>
       <c r="E9">
-        <v>6.555616826391694</v>
+        <v>11.17078503827269</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.060983289849142</v>
+        <v>3.649171072092589</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.918472704028867</v>
+        <v>9.98366000046599</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.48765116559619</v>
+        <v>25.71588331151099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.26426326141656</v>
+        <v>20.72604163555635</v>
       </c>
       <c r="C10">
-        <v>15.68460080518518</v>
+        <v>10.907110679823</v>
       </c>
       <c r="D10">
-        <v>8.936151231802175</v>
+        <v>6.462532023255845</v>
       </c>
       <c r="E10">
-        <v>6.463072730276098</v>
+        <v>11.10271458485408</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.047580273349392</v>
+        <v>3.644734168103836</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.397215609505503</v>
+        <v>10.04775546600764</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.31279589423747</v>
+        <v>25.66974808539241</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.37674189940783</v>
+        <v>21.15330664090591</v>
       </c>
       <c r="C11">
-        <v>16.12545259140624</v>
+        <v>11.11272107737919</v>
       </c>
       <c r="D11">
-        <v>9.276504924682904</v>
+        <v>6.559426670798619</v>
       </c>
       <c r="E11">
-        <v>6.427911829484775</v>
+        <v>11.07382481894056</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.041561545989181</v>
+        <v>3.642809495978688</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.612463869321063</v>
+        <v>10.07863008999898</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.71659594411475</v>
+        <v>25.6577111466097</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.79006815603182</v>
+        <v>21.31318410860069</v>
       </c>
       <c r="C12">
-        <v>16.28983246029959</v>
+        <v>11.18943248093371</v>
       </c>
       <c r="D12">
-        <v>9.403233671690474</v>
+        <v>6.596000849106912</v>
       </c>
       <c r="E12">
-        <v>6.415673879164998</v>
+        <v>11.06318365119712</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.039291408657249</v>
+        <v>3.642094062673491</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.693580649747675</v>
+        <v>10.0905622549998</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.87369453397049</v>
+        <v>25.65444716646762</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.70140133974405</v>
+        <v>21.27883907642959</v>
       </c>
       <c r="C13">
-        <v>16.25454421284522</v>
+        <v>11.17296309838901</v>
       </c>
       <c r="D13">
-        <v>9.376035117244232</v>
+        <v>6.588129785810466</v>
       </c>
       <c r="E13">
-        <v>6.418260320232417</v>
+        <v>11.06546212533001</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.039779960151875</v>
+        <v>3.642247549341065</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.676128511636332</v>
+        <v>10.08798185266379</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.83967263694799</v>
+        <v>25.65509246328047</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.41090466631559</v>
+        <v>21.16649907101365</v>
       </c>
       <c r="C14">
-        <v>16.13902755209751</v>
+        <v>11.11905544663543</v>
       </c>
       <c r="D14">
-        <v>9.286973775171315</v>
+        <v>6.562438227879348</v>
       </c>
       <c r="E14">
-        <v>6.426882949327062</v>
+        <v>11.07294337452906</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.041374613224466</v>
+        <v>3.642750368759569</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.619145395336325</v>
+        <v>10.07960697154528</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.72943601642998</v>
+        <v>25.65741664332864</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.23193787275488</v>
+        <v>21.09743374424196</v>
       </c>
       <c r="C15">
-        <v>16.06793670091303</v>
+        <v>11.0858845321524</v>
       </c>
       <c r="D15">
-        <v>9.232142474342552</v>
+        <v>6.546684943016118</v>
       </c>
       <c r="E15">
-        <v>6.432307243878083</v>
+        <v>11.0775647710024</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.042352489055493</v>
+        <v>3.643060102791474</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.584189753908394</v>
+        <v>10.07450825669059</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.66246135430159</v>
+        <v>25.65900900022854</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.19043833479781</v>
+        <v>20.69785782774168</v>
       </c>
       <c r="C16">
-        <v>15.65543188552256</v>
+        <v>10.89351525508572</v>
       </c>
       <c r="D16">
-        <v>8.913602849294101</v>
+        <v>6.456185353227381</v>
       </c>
       <c r="E16">
-        <v>6.465516788009062</v>
+        <v>11.10464439156339</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.047975001363931</v>
+        <v>3.644861828939436</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.383094916931743</v>
+        <v>10.04577175958613</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.28698722992497</v>
+        <v>25.67071546106969</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.53716565785777</v>
+        <v>20.44946183790688</v>
       </c>
       <c r="C17">
-        <v>15.39781727585966</v>
+        <v>10.77350568803923</v>
       </c>
       <c r="D17">
-        <v>8.714275503424545</v>
+        <v>6.400498562259978</v>
       </c>
       <c r="E17">
-        <v>6.487720830890817</v>
+        <v>11.12178870807851</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.051442773226535</v>
+        <v>3.645991074052822</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.259056560890908</v>
+        <v>10.02857829173243</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.06399914082158</v>
+        <v>25.68019475382157</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.15609148754396</v>
+        <v>20.30543638379748</v>
       </c>
       <c r="C18">
-        <v>15.24797367117523</v>
+        <v>10.70376083537996</v>
       </c>
       <c r="D18">
-        <v>8.5981680347689</v>
+        <v>6.36841992540591</v>
       </c>
       <c r="E18">
-        <v>6.501139897986187</v>
+        <v>11.13184503525816</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.053444867341765</v>
+        <v>3.646649409725344</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.187475415699398</v>
+        <v>10.01885110275808</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.93841310698046</v>
+        <v>25.6864890672003</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.02614580854193</v>
+        <v>20.25647813779662</v>
       </c>
       <c r="C19">
-        <v>15.19695284185732</v>
+        <v>10.6800245459305</v>
       </c>
       <c r="D19">
-        <v>8.558603367640567</v>
+        <v>6.35755145472502</v>
       </c>
       <c r="E19">
-        <v>6.505792341233143</v>
+        <v>11.13528348224052</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.054124099088637</v>
+        <v>3.646873828664495</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.163199532735714</v>
+        <v>10.01558566125242</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.89634758214893</v>
+        <v>25.68876460685444</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.60725792493293</v>
+        <v>20.47602460164856</v>
       </c>
       <c r="C20">
-        <v>15.42541379995132</v>
+        <v>10.78635563485001</v>
       </c>
       <c r="D20">
-        <v>8.735644834765971</v>
+        <v>6.406431886044701</v>
       </c>
       <c r="E20">
-        <v>6.485289567682999</v>
+        <v>11.11994344446209</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.05107285991767</v>
+        <v>3.645869951304044</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.272285487338383</v>
+        <v>10.03039184006936</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.08745947911472</v>
+        <v>25.67909846036357</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.49644472718157</v>
+        <v>21.19954918551632</v>
       </c>
       <c r="C21">
-        <v>16.17302710516829</v>
+        <v>11.13492095971766</v>
       </c>
       <c r="D21">
-        <v>9.313191194089905</v>
+        <v>6.569987959583202</v>
       </c>
       <c r="E21">
-        <v>6.424320387763573</v>
+        <v>11.0707378398854</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.040905999054361</v>
+        <v>3.642602315481541</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.635893555249167</v>
+        <v>10.08206039900577</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.76170070296022</v>
+        <v>25.6566988010034</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.68491861980959</v>
+        <v>21.66117601289356</v>
       </c>
       <c r="C22">
-        <v>16.64671358245597</v>
+        <v>11.3560141573681</v>
       </c>
       <c r="D22">
-        <v>9.678120635005808</v>
+        <v>6.676178359574497</v>
       </c>
       <c r="E22">
-        <v>6.390791181601705</v>
+        <v>11.04032066613174</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.034312759261216</v>
+        <v>3.640544787211315</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.871236480130333</v>
+        <v>10.11722811045998</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.22681970914168</v>
+        <v>25.64960516207883</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.05477440483052</v>
+        <v>21.41586872389578</v>
       </c>
       <c r="C23">
-        <v>16.39526282336346</v>
+        <v>11.238641223035</v>
       </c>
       <c r="D23">
-        <v>9.484473756022782</v>
+        <v>6.61957932802222</v>
       </c>
       <c r="E23">
-        <v>6.408080333764257</v>
+        <v>11.05639544339857</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.03782779460621</v>
+        <v>3.641635811007331</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.745846009271753</v>
+        <v>10.09833257881946</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.97630424062372</v>
+        <v>25.65269864827907</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.57558635252712</v>
+        <v>20.46401936294941</v>
       </c>
       <c r="C24">
-        <v>15.41294282251923</v>
+        <v>10.78054850565129</v>
       </c>
       <c r="D24">
-        <v>8.725988473163428</v>
+        <v>6.403749625357507</v>
       </c>
       <c r="E24">
-        <v>6.486386711649346</v>
+        <v>11.12077706569447</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.051240071312776</v>
+        <v>3.645924682490954</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.266305527870824</v>
+        <v>10.02957144359834</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.07684492929198</v>
+        <v>25.67959146436484</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.69701148490655</v>
+        <v>19.39386940208042</v>
       </c>
       <c r="C25">
-        <v>14.28966459913638</v>
+        <v>10.25918930894648</v>
       </c>
       <c r="D25">
-        <v>7.851799936469487</v>
+        <v>6.169242305875739</v>
       </c>
       <c r="E25">
-        <v>6.595360996471856</v>
+        <v>11.19769168827295</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.066002369249469</v>
+        <v>3.650888594839309</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.740179539585899</v>
+        <v>9.961618575114384</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.20833680279538</v>
+        <v>25.74075538013524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_150/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.57454011872788</v>
+        <v>24.3953411306369</v>
       </c>
       <c r="C2">
-        <v>9.853855477746013</v>
+        <v>13.40889964620262</v>
       </c>
       <c r="D2">
-        <v>5.996619807621492</v>
+        <v>7.15756229054865</v>
       </c>
       <c r="E2">
-        <v>11.26074743519876</v>
+        <v>6.694100005754795</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.65483739086045</v>
+        <v>2.077200736495224</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.917129744464303</v>
+        <v>7.346752329672467</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.81311950481265</v>
+        <v>18.65230534753265</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.00325837333569</v>
+        <v>22.71884735292055</v>
       </c>
       <c r="C3">
-        <v>9.566954487246271</v>
+        <v>12.77962099331855</v>
       </c>
       <c r="D3">
-        <v>5.880471611436008</v>
+        <v>6.65442764296745</v>
       </c>
       <c r="E3">
-        <v>11.30748871448804</v>
+        <v>6.771423171333602</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.657698605693289</v>
+        <v>2.08502845370116</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.890527293875826</v>
+        <v>7.077507281008906</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.87901689110492</v>
+        <v>18.32517994517207</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.64595112973065</v>
+        <v>21.63101628930747</v>
       </c>
       <c r="C4">
-        <v>9.385235561588056</v>
+        <v>12.37784837736306</v>
       </c>
       <c r="D4">
-        <v>5.809853088783401</v>
+        <v>6.329061062496555</v>
       </c>
       <c r="E4">
-        <v>11.33816515830682</v>
+        <v>6.823697087092587</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.659547268771552</v>
+        <v>2.089962280781238</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.875970262351704</v>
+        <v>6.911387731153729</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.9277208783482</v>
+        <v>18.14790047108868</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.49892536856162</v>
+        <v>21.17288637052475</v>
       </c>
       <c r="C5">
-        <v>9.30986173853268</v>
+        <v>12.21036446559961</v>
       </c>
       <c r="D5">
-        <v>5.781294205065535</v>
+        <v>6.202875018298522</v>
       </c>
       <c r="E5">
-        <v>11.35116321038829</v>
+        <v>6.846159219407644</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.660323794785724</v>
+        <v>2.092006298565884</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.87048885943155</v>
+        <v>6.843575356510087</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.94962969260857</v>
+        <v>18.08142751039361</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.47443293795263</v>
+        <v>21.09591482759417</v>
       </c>
       <c r="C6">
-        <v>9.297268491610579</v>
+        <v>12.18233066038738</v>
       </c>
       <c r="D6">
-        <v>5.776566509534832</v>
+        <v>6.183443108613437</v>
       </c>
       <c r="E6">
-        <v>11.35335155388083</v>
+        <v>6.849957821611621</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.66045413876695</v>
+        <v>2.09234776433631</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.869606003259277</v>
+        <v>6.832310712533245</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.95339180583249</v>
+        <v>18.07073315012464</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.64397373137707</v>
+        <v>21.62489800448904</v>
       </c>
       <c r="C7">
-        <v>9.384224290483145</v>
+        <v>12.37560468170689</v>
       </c>
       <c r="D7">
-        <v>5.809466990418624</v>
+        <v>6.327233513959121</v>
       </c>
       <c r="E7">
-        <v>11.33833844163613</v>
+        <v>6.8239953805944</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.659557647308134</v>
+        <v>2.089989709966623</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.875894508535241</v>
+        <v>6.91047354684608</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.92800801655958</v>
+        <v>18.14698085702489</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.37904836088398</v>
+        <v>23.82933879411811</v>
       </c>
       <c r="C8">
-        <v>9.756129934898757</v>
+        <v>13.19517918457574</v>
       </c>
       <c r="D8">
-        <v>5.956453261936004</v>
+        <v>6.987464392238936</v>
       </c>
       <c r="E8">
-        <v>11.27645347296665</v>
+        <v>6.719736468388082</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.655804919548494</v>
+        <v>2.079874102592387</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.90759084695903</v>
+        <v>7.254130880297736</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.83412366390773</v>
+        <v>18.53453019754104</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.75965896433191</v>
+        <v>27.69455276805007</v>
       </c>
       <c r="C9">
-        <v>10.43828642078554</v>
+        <v>14.67648960669597</v>
       </c>
       <c r="D9">
-        <v>6.248334215754381</v>
+        <v>8.153976210689704</v>
       </c>
       <c r="E9">
-        <v>11.17078503827269</v>
+        <v>6.555616826391761</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.649171072092589</v>
+        <v>2.060983289849141</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.98366000046599</v>
+        <v>7.918472704028876</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.71588331151099</v>
+        <v>19.48765116559624</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.72604163555635</v>
+        <v>30.26426326141651</v>
       </c>
       <c r="C10">
-        <v>10.907110679823</v>
+        <v>15.68460080518539</v>
       </c>
       <c r="D10">
-        <v>6.462532023255845</v>
+        <v>8.936151231802162</v>
       </c>
       <c r="E10">
-        <v>11.10271458485408</v>
+        <v>6.463072730276154</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.644734168103836</v>
+        <v>2.047580273349392</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.04775546600764</v>
+        <v>8.397215609505505</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.66974808539241</v>
+        <v>20.31279589423752</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.15330664090591</v>
+        <v>31.37674189940788</v>
       </c>
       <c r="C11">
-        <v>11.11272107737919</v>
+        <v>16.12545259140625</v>
       </c>
       <c r="D11">
-        <v>6.559426670798619</v>
+        <v>9.276504924682936</v>
       </c>
       <c r="E11">
-        <v>11.07382481894056</v>
+        <v>6.427911829484671</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.642809495978688</v>
+        <v>2.041561545989048</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.07863008999898</v>
+        <v>8.612463869321068</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.6577111466097</v>
+        <v>20.71659594411471</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.31318410860069</v>
+        <v>31.79006815603184</v>
       </c>
       <c r="C12">
-        <v>11.18943248093371</v>
+        <v>16.28983246029966</v>
       </c>
       <c r="D12">
-        <v>6.596000849106912</v>
+        <v>9.403233671690487</v>
       </c>
       <c r="E12">
-        <v>11.06318365119712</v>
+        <v>6.415673879165048</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.642094062673491</v>
+        <v>2.039291408657249</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.0905622549998</v>
+        <v>8.693580649747682</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.65444716646762</v>
+        <v>20.87369453397046</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.27883907642959</v>
+        <v>31.70140133974404</v>
       </c>
       <c r="C13">
-        <v>11.17296309838901</v>
+        <v>16.25454421284514</v>
       </c>
       <c r="D13">
-        <v>6.588129785810466</v>
+        <v>9.376035117244202</v>
       </c>
       <c r="E13">
-        <v>11.06546212533001</v>
+        <v>6.418260320232418</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.642247549341065</v>
+        <v>2.039779960151875</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.08798185266379</v>
+        <v>8.676128511636342</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.65509246328047</v>
+        <v>20.83967263694802</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.16649907101365</v>
+        <v>31.41090466631562</v>
       </c>
       <c r="C14">
-        <v>11.11905544663543</v>
+        <v>16.13902755209741</v>
       </c>
       <c r="D14">
-        <v>6.562438227879348</v>
+        <v>9.286973775171234</v>
       </c>
       <c r="E14">
-        <v>11.07294337452906</v>
+        <v>6.426882949327061</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.642750368759569</v>
+        <v>2.041374613224599</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.07960697154528</v>
+        <v>8.619145395336346</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.65741664332864</v>
+        <v>20.72943601642993</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.09743374424196</v>
+        <v>31.23193787275489</v>
       </c>
       <c r="C15">
-        <v>11.0858845321524</v>
+        <v>16.06793670091318</v>
       </c>
       <c r="D15">
-        <v>6.546684943016118</v>
+        <v>9.232142474342595</v>
       </c>
       <c r="E15">
-        <v>11.0775647710024</v>
+        <v>6.432307243878234</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.643060102791474</v>
+        <v>2.042352489055359</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.07450825669059</v>
+        <v>8.584189753908401</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.65900900022854</v>
+        <v>20.66246135430159</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.69785782774168</v>
+        <v>30.1904383347978</v>
       </c>
       <c r="C16">
-        <v>10.89351525508572</v>
+        <v>15.65543188552252</v>
       </c>
       <c r="D16">
-        <v>6.456185353227381</v>
+        <v>8.913602849293961</v>
       </c>
       <c r="E16">
-        <v>11.10464439156339</v>
+        <v>6.46551678800907</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.644861828939436</v>
+        <v>2.047975001363798</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.04577175958613</v>
+        <v>8.383094916931743</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.67071546106969</v>
+        <v>20.28698722992504</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.44946183790688</v>
+        <v>29.53716565785779</v>
       </c>
       <c r="C17">
-        <v>10.77350568803923</v>
+        <v>15.39781727585979</v>
       </c>
       <c r="D17">
-        <v>6.400498562259978</v>
+        <v>8.714275503424538</v>
       </c>
       <c r="E17">
-        <v>11.12178870807851</v>
+        <v>6.487720830890827</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.645991074052822</v>
+        <v>2.051442773226668</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.02857829173243</v>
+        <v>8.259056560890913</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.68019475382157</v>
+        <v>20.06399914082154</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.30543638379748</v>
+        <v>29.15609148754405</v>
       </c>
       <c r="C18">
-        <v>10.70376083537996</v>
+        <v>15.24797367117523</v>
       </c>
       <c r="D18">
-        <v>6.36841992540591</v>
+        <v>8.598168034768834</v>
       </c>
       <c r="E18">
-        <v>11.13184503525816</v>
+        <v>6.50113989798604</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.646649409725344</v>
+        <v>2.053444867342298</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.01885110275808</v>
+        <v>8.187475415699339</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.6864890672003</v>
+        <v>19.9384131069804</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.25647813779662</v>
+        <v>29.02614580854191</v>
       </c>
       <c r="C19">
-        <v>10.6800245459305</v>
+        <v>15.19695284185731</v>
       </c>
       <c r="D19">
-        <v>6.35755145472502</v>
+        <v>8.558603367640711</v>
       </c>
       <c r="E19">
-        <v>11.13528348224052</v>
+        <v>6.505792341233148</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.646873828664495</v>
+        <v>2.054124099088638</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.01558566125242</v>
+        <v>8.163199532735709</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.68876460685444</v>
+        <v>19.89634758214893</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.47602460164856</v>
+        <v>29.60725792493292</v>
       </c>
       <c r="C20">
-        <v>10.78635563485001</v>
+        <v>15.42541379995136</v>
       </c>
       <c r="D20">
-        <v>6.406431886044701</v>
+        <v>8.735644834765994</v>
       </c>
       <c r="E20">
-        <v>11.11994344446209</v>
+        <v>6.485289567682955</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.645869951304044</v>
+        <v>2.051072859917667</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.03039184006936</v>
+        <v>8.272285487338371</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.67909846036357</v>
+        <v>20.08745947911465</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.19954918551632</v>
+        <v>31.49644472718156</v>
       </c>
       <c r="C21">
-        <v>11.13492095971766</v>
+        <v>16.1730271051682</v>
       </c>
       <c r="D21">
-        <v>6.569987959583202</v>
+        <v>9.313191194089967</v>
       </c>
       <c r="E21">
-        <v>11.0707378398854</v>
+        <v>6.424320387763514</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.642602315481541</v>
+        <v>2.040905999054228</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.08206039900577</v>
+        <v>8.635893555249162</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.6566988010034</v>
+        <v>20.76170070296019</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.66117601289356</v>
+        <v>32.68491861980959</v>
       </c>
       <c r="C22">
-        <v>11.3560141573681</v>
+        <v>16.64671358245602</v>
       </c>
       <c r="D22">
-        <v>6.676178359574497</v>
+        <v>9.678120635005831</v>
       </c>
       <c r="E22">
-        <v>11.04032066613174</v>
+        <v>6.390791181601753</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.640544787211315</v>
+        <v>2.034312759261083</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.11722811045998</v>
+        <v>8.871236480130348</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.64960516207883</v>
+        <v>21.22681970914164</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.41586872389578</v>
+        <v>32.05477440483062</v>
       </c>
       <c r="C23">
-        <v>11.238641223035</v>
+        <v>16.39526282336352</v>
       </c>
       <c r="D23">
-        <v>6.61957932802222</v>
+        <v>9.484473756022748</v>
       </c>
       <c r="E23">
-        <v>11.05639544339857</v>
+        <v>6.408080333764338</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.641635811007331</v>
+        <v>2.037827794605809</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.09833257881946</v>
+        <v>8.745846009271778</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.65269864827907</v>
+        <v>20.97630424062362</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.46401936294941</v>
+        <v>29.57558635252716</v>
       </c>
       <c r="C24">
-        <v>10.78054850565129</v>
+        <v>15.41294282251923</v>
       </c>
       <c r="D24">
-        <v>6.403749625357507</v>
+        <v>8.725988473163504</v>
       </c>
       <c r="E24">
-        <v>11.12077706569447</v>
+        <v>6.486386711649347</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.645924682490954</v>
+        <v>2.051240071312644</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.02957144359834</v>
+        <v>8.26630552787082</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.67959146436484</v>
+        <v>20.07684492929194</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.39386940208042</v>
+        <v>26.69701148490656</v>
       </c>
       <c r="C25">
-        <v>10.25918930894648</v>
+        <v>14.28966459913628</v>
       </c>
       <c r="D25">
-        <v>6.169242305875739</v>
+        <v>7.851799936469493</v>
       </c>
       <c r="E25">
-        <v>11.19769168827295</v>
+        <v>6.595360996471852</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.650888594839309</v>
+        <v>2.066002369249605</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.961618575114384</v>
+        <v>7.74017953958588</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.74075538013524</v>
+        <v>19.2083368027955</v>
       </c>
     </row>
   </sheetData>
